--- a/classification/droptc/sentence/neo-bert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/52680723/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998766183853149</v>
+        <v>0.9361907243728638</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.990218460559845</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.764676570892334</v>
+        <v>0.9511231780052185</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9757888317108154</v>
+        <v>0.5233193635940552</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9946295022964478</v>
+        <v>0.9977279305458069</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9838719964027405</v>
+        <v>0.9988771080970764</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982909560203552</v>
+        <v>0.9923425316810608</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9928247928619385</v>
+        <v>0.994683563709259</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9972459077835083</v>
+        <v>0.9923425316810608</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9804947376251221</v>
+        <v>0.9869705438613892</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9988774657249451</v>
+        <v>0.9966576099395752</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998977184295654</v>
+        <v>0.9784073233604431</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8813110589981079</v>
+        <v>0.9453924298286438</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9819005131721497</v>
+        <v>0.6548628211021423</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.95982825756073</v>
+        <v>0.9967681169509888</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9983408451080322</v>
+        <v>0.9858134388923645</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9963846206665039</v>
+        <v>0.9858331680297852</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9757888317108154</v>
+        <v>0.9992349147796631</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8348340392112732</v>
+        <v>0.9413763880729675</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993236064910889</v>
+        <v>0.9992138147354126</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9988583326339722</v>
+        <v>0.9899100661277771</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.997735857963562</v>
+        <v>0.9975316524505615</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9992019534111023</v>
+        <v>0.9966952800750732</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9944964051246643</v>
+        <v>0.7951490879058838</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4984491467475891</v>
+        <v>0.9851884841918945</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9965919256210327</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9969545602798462</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8679521083831787</v>
+        <v>0.9916731715202332</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9730653762817383</v>
+        <v>0.9978007674217224</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9988797307014465</v>
+        <v>0.9972425699234009</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9986649751663208</v>
+        <v>0.9865859746932983</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8468352556228638</v>
+        <v>0.9940811991691589</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9982312321662903</v>
+        <v>0.7559283375740051</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5476658344268799</v>
+        <v>0.9986621141433716</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9971062541007996</v>
+        <v>0.8830202221870422</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3436144888401031</v>
+        <v>0.9993928670883179</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9998052716255188</v>
+        <v>0.9956322312355042</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9996452331542969</v>
+        <v>0.9370271563529968</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9786702990531921</v>
+        <v>0.7899286150932312</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8924832344055176</v>
+        <v>0.9970161914825439</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9984879493713379</v>
+        <v>0.9785279631614685</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9994797110557556</v>
+        <v>0.9648221135139465</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9978131055831909</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9990556836128235</v>
+        <v>0.993723452091217</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9998226761817932</v>
+        <v>0.9808112382888794</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6278783679008484</v>
+        <v>0.4663460850715637</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998164772987366</v>
+        <v>0.9935516119003296</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9217147827148438</v>
+        <v>0.9993485808372498</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.999674916267395</v>
+        <v>0.9974014759063721</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7623835206031799</v>
+        <v>0.4706719219684601</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9968384504318237</v>
+        <v>0.9901403784751892</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9609385132789612</v>
+        <v>0.9974014759063721</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9978432655334473</v>
+        <v>0.9404439926147461</v>
       </c>
     </row>
     <row r="55">
@@ -1967,14 +1967,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8766154646873474</v>
+        <v>0.9991905093193054</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9885156154632568</v>
+        <v>0.9976344108581543</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9754471182823181</v>
+        <v>0.9988082647323608</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9935358762741089</v>
+        <v>0.9900015592575073</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9974472522735596</v>
+        <v>0.9735233187675476</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9989668130874634</v>
+        <v>0.9867460131645203</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9994567036628723</v>
+        <v>0.963944137096405</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6013333797454834</v>
+        <v>0.9848102927207947</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9801414012908936</v>
+        <v>0.9981405735015869</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9898736476898193</v>
+        <v>0.7800633907318115</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9995667338371277</v>
+        <v>0.9990847110748291</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9986880421638489</v>
+        <v>0.9990847110748291</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9997602105140686</v>
+        <v>0.9812860488891602</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8303163647651672</v>
+        <v>0.9990847110748291</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9992995262145996</v>
+        <v>0.9906089305877686</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9850028157234192</v>
+        <v>0.9975813627243042</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9983653426170349</v>
+        <v>0.9677541255950928</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9953267574310303</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.998643696308136</v>
+        <v>0.9993730187416077</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9987155199050903</v>
+        <v>0.9562699794769287</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9933444261550903</v>
+        <v>0.9924236536026001</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9948036074638367</v>
+        <v>0.9993730187416077</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.995703399181366</v>
+        <v>0.982401430606842</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9900078773498535</v>
+        <v>0.9993730187416077</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9979060888290405</v>
+        <v>0.9957486987113953</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986649751663208</v>
+        <v>0.9961233735084534</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9979060888290405</v>
+        <v>0.9862015843391418</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9986649751663208</v>
+        <v>0.9961233735084534</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9952493906021118</v>
+        <v>0.9744200706481934</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9983293414115906</v>
+        <v>0.9744200706481934</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9852206707000732</v>
+        <v>0.9993060827255249</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9838836789131165</v>
+        <v>0.9891327023506165</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9997027516365051</v>
+        <v>0.9827061891555786</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9880532026290894</v>
+        <v>0.9918890595436096</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9879558682441711</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9978735446929932</v>
+        <v>0.9996098875999451</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9921466708183289</v>
+        <v>0.9996088147163391</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9984886646270752</v>
+        <v>0.9994792342185974</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6444666981697083</v>
+        <v>0.9995744824409485</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9930614829063416</v>
+        <v>0.9995142221450806</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9881076216697693</v>
+        <v>0.9993599057197571</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5368289947509766</v>
+        <v>0.9955621957778931</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.985512912273407</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9941931366920471</v>
+        <v>0.9978623986244202</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9928247928619385</v>
+        <v>0.7439575791358948</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9629260301589966</v>
+        <v>0.981756865978241</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9921466708183289</v>
+        <v>0.9971062541007996</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9992440938949585</v>
+        <v>0.4829348921775818</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9999188184738159</v>
+        <v>0.5875206589698792</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9964757561683655</v>
+        <v>0.8920772075653076</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9807257056236267</v>
+        <v>0.9993392825126648</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9953703284263611</v>
+        <v>0.9921040534973145</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9998326301574707</v>
+        <v>0.9721441864967346</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9995447993278503</v>
+        <v>0.9968221187591553</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5475562810897827</v>
+        <v>0.968535840511322</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9997357726097107</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9997400641441345</v>
+        <v>0.9979708790779114</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9977770447731018</v>
+        <v>0.9961406588554382</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9852206707000732</v>
+        <v>0.9749519228935242</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9941851496696472</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.8579040169715881</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9992794394493103</v>
+        <v>0.9312580823898315</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9852206707000732</v>
+        <v>0.9835723042488098</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9978784322738647</v>
+        <v>0.5035589933395386</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9991356730461121</v>
+        <v>0.7192022204399109</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4113118350505829</v>
+        <v>0.9925906658172607</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9986132383346558</v>
+        <v>0.9895692467689514</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9967319965362549</v>
+        <v>0.9925906658172607</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986274242401123</v>
+        <v>0.9895692467689514</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9963667392730713</v>
+        <v>0.9925906658172607</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9967504739761353</v>
+        <v>0.9994788765907288</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9989525079727173</v>
+        <v>0.5914774537086487</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9737087488174438</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9872131943702698</v>
+        <v>0.9817453026771545</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9972264170646667</v>
+        <v>0.6676934361457825</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9986010193824768</v>
+        <v>0.9982190728187561</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9979060888290405</v>
+        <v>0.659252405166626</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9940574169158936</v>
+        <v>0.9925682544708252</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9995148181915283</v>
+        <v>0.962281346321106</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9460278749465942</v>
+        <v>0.6661560535430908</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9989554882049561</v>
+        <v>0.9845333099365234</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9898669719696045</v>
+        <v>0.9993484616279602</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8922743797302246</v>
+        <v>0.9967136383056641</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9996142387390137</v>
+        <v>0.9960235357284546</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9832379817962646</v>
+        <v>0.9970144033432007</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8744505047798157</v>
+        <v>0.6069560050964355</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7098962068557739</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9998328685760498</v>
+        <v>0.995623767375946</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.808489978313446</v>
+        <v>0.9980118274688721</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9946070313453674</v>
+        <v>0.995623767375946</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.995370090007782</v>
+        <v>0.9890672564506531</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9667452573776245</v>
+        <v>0.9906089305877686</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9992019534111023</v>
+        <v>0.9919795989990234</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.931140124797821</v>
+        <v>0.9859731197357178</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9995476603507996</v>
+        <v>0.8180146217346191</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9995957016944885</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9928247928619385</v>
+        <v>0.9090110063552856</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.996235191822052</v>
+        <v>0.9787598252296448</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9995588660240173</v>
+        <v>0.9969342947006226</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8565093278884888</v>
+        <v>0.9998701810836792</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9998495578765869</v>
+        <v>0.9949523210525513</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9993699193000793</v>
+        <v>0.9997349381446838</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.999025821685791</v>
+        <v>0.9961263537406921</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9172490835189819</v>
+        <v>0.9996532201766968</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9886432290077209</v>
+        <v>0.638153076171875</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9946070313453674</v>
+        <v>0.987773597240448</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9985172152519226</v>
+        <v>0.9692527055740356</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9984545707702637</v>
+        <v>0.9846615195274353</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.990019679069519</v>
+        <v>0.9916952252388</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9963780045509338</v>
+        <v>0.9993898868560791</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.999754011631012</v>
+        <v>0.9162033796310425</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9989019632339478</v>
+        <v>0.9912956953048706</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9979214072227478</v>
+        <v>0.3844074904918671</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9963667392730713</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9279782772064209</v>
+        <v>0.9912956953048706</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9993890523910522</v>
+        <v>0.6282335519790649</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9979368448257446</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9364914298057556</v>
+        <v>0.9972450733184814</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9987612962722778</v>
+        <v>0.9991409778594971</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9995173215866089</v>
+        <v>0.9972450733184814</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5559957027435303</v>
+        <v>0.9972450733184814</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9998658895492554</v>
+        <v>0.9991409778594971</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9609385132789612</v>
+        <v>0.9977478384971619</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9978961944580078</v>
+        <v>0.9972479939460754</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9988288283348083</v>
+        <v>0.9258309602737427</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9991894364356995</v>
+        <v>0.9317179322242737</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9989019632339478</v>
+        <v>0.9995430707931519</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9980556964874268</v>
+        <v>0.969906210899353</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9986143112182617</v>
+        <v>0.9982725381851196</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9991775155067444</v>
+        <v>0.9985325336456299</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9633510112762451</v>
+        <v>0.9988246560096741</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9998565912246704</v>
+        <v>0.9970796704292297</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.983353853225708</v>
+        <v>0.9985484480857849</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9120887517929077</v>
+        <v>0.998964786529541</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.7788039445877075</v>
+        <v>0.9987910389900208</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9160765409469604</v>
+        <v>0.8622387051582336</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9988441467285156</v>
+        <v>0.9983059167861938</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986880421638489</v>
+        <v>0.9901330471038818</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9888443350791931</v>
+        <v>0.9949470162391663</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9947183728218079</v>
+        <v>0.9869281649589539</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9974472522735596</v>
+        <v>0.99964439868927</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9209930300712585</v>
+        <v>0.9983770847320557</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.964766263961792</v>
+        <v>0.9972585439682007</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9968087077140808</v>
+        <v>0.996727466583252</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9284167289733887</v>
+        <v>0.8741425275802612</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9991307854652405</v>
+        <v>0.9996368885040283</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9194765686988831</v>
+        <v>0.9977520108222961</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9983806610107422</v>
+        <v>0.9927800297737122</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.998690664768219</v>
+        <v>0.9736037850379944</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.8092889189720154</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9876304268836975</v>
+        <v>0.9996176958084106</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9258784651756287</v>
+        <v>0.9914249181747437</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9997653365135193</v>
+        <v>0.9970718622207642</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5842045545578003</v>
+        <v>0.7942558526992798</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.931458055973053</v>
+        <v>0.9996050000190735</v>
       </c>
     </row>
   </sheetData>
